--- a/signalList.xlsx
+++ b/signalList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/manuel_segade_bodelo_alumnos_upm_es/Documents/master/cybertech/Cybertech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC19D23-D4E5-4C55-9A08-3BBF1E2E0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3DC19D23-D4E5-4C55-9A08-3BBF1E2E0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34CFCB8-D032-4C41-A9FF-4C219A22447F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3097762-3B4C-46FB-87C0-469FC8E4E28E}"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{D3097762-3B4C-46FB-87C0-469FC8E4E28E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +641,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">

--- a/signalList.xlsx
+++ b/signalList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/manuel_segade_bodelo_alumnos_upm_es/Documents/master/cybertech/Cybertech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3DC19D23-D4E5-4C55-9A08-3BBF1E2E0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34CFCB8-D032-4C41-A9FF-4C219A22447F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{3DC19D23-D4E5-4C55-9A08-3BBF1E2E0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE9D003-614A-40D2-8B10-31CB089B153B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{D3097762-3B4C-46FB-87C0-469FC8E4E28E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3097762-3B4C-46FB-87C0-469FC8E4E28E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
 </sst>
 </file>
@@ -184,6 +199,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E7764B-2388-4795-BB82-5A079E555D92}">
-  <dimension ref="B3:E20"/>
+  <dimension ref="B3:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,13 +544,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -545,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -556,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -567,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -578,7 +597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -592,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -603,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -614,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -625,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -636,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -647,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -658,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -669,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -678,6 +697,31 @@
       </c>
       <c r="E20">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
